--- a/gummy/gummy/MAP3.xlsx
+++ b/gummy/gummy/MAP3.xlsx
@@ -96,7 +96,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -104,16 +104,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -406,7 +396,7 @@
   <dimension ref="A1:AF32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD13" sqref="AD13"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -755,13 +745,13 @@
         <v>0</v>
       </c>
       <c r="Q4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4" s="1">
         <v>0</v>
@@ -817,10 +807,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -853,13 +843,13 @@
         <v>0</v>
       </c>
       <c r="Q5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" s="1">
         <v>0</v>
@@ -915,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -930,19 +920,19 @@
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="1">
         <v>0</v>
@@ -951,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="Q6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" s="1">
         <v>0</v>
@@ -1010,16 +1000,16 @@
         <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
@@ -1028,19 +1018,19 @@
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" s="1">
         <v>0</v>
@@ -1049,25 +1039,25 @@
         <v>0</v>
       </c>
       <c r="Q7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" s="1">
         <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7" s="1">
         <v>0</v>
@@ -1108,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
@@ -1126,19 +1116,19 @@
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="1">
         <v>0</v>
@@ -1147,13 +1137,13 @@
         <v>0</v>
       </c>
       <c r="Q8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" s="1">
         <v>0</v>
@@ -1162,10 +1152,10 @@
         <v>1</v>
       </c>
       <c r="V8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8" s="1">
         <v>0</v>
@@ -1209,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -1224,19 +1214,19 @@
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="1">
         <v>0</v>
@@ -1245,25 +1235,25 @@
         <v>0</v>
       </c>
       <c r="Q9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" s="1">
         <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9" s="1">
         <v>0</v>
@@ -1307,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -1322,19 +1312,19 @@
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" s="1">
         <v>0</v>
@@ -1355,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10" s="1">
         <v>0</v>
@@ -1420,19 +1410,19 @@
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="1">
         <v>0</v>
@@ -1518,19 +1508,19 @@
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" s="1">
         <v>0</v>
@@ -1616,19 +1606,19 @@
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="1">
         <v>0</v>
@@ -1714,19 +1704,19 @@
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
@@ -1830,16 +1820,16 @@
         <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" s="1">
         <v>0</v>
@@ -1928,16 +1918,16 @@
         <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" s="1">
         <v>0</v>
@@ -2026,16 +2016,16 @@
         <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" s="1">
         <v>0</v>
@@ -2124,16 +2114,16 @@
         <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" s="1">
         <v>0</v>
@@ -2222,16 +2212,16 @@
         <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19" s="1">
         <v>0</v>
@@ -2320,16 +2310,16 @@
         <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20" s="1">
         <v>0</v>
@@ -2418,16 +2408,16 @@
         <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21" s="1">
         <v>0</v>
@@ -2516,16 +2506,16 @@
         <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" s="1">
         <v>0</v>
@@ -2614,16 +2604,16 @@
         <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23" s="1">
         <v>0</v>
@@ -2712,16 +2702,16 @@
         <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24" s="1">
         <v>0</v>
@@ -2810,16 +2800,16 @@
         <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25" s="1">
         <v>0</v>
@@ -2908,16 +2898,16 @@
         <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26" s="1">
         <v>0</v>

--- a/gummy/gummy/MAP3.xlsx
+++ b/gummy/gummy/MAP3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\Gummy\gummy\gummy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\gummymainpro\gummy\gummy\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -395,11 +395,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A1" s="1">
